--- a/data/data_demo.xlsx
+++ b/data/data_demo.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="21735" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -29,15 +29,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -45,19 +49,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -80,22 +421,316 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -378,17 +1013,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C47" sqref="A35:C47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -406,7 +1046,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="2">
-        <v>45072.91771902778</v>
+        <v>45072.9177190278</v>
       </c>
       <c r="C2">
         <v>5.026677</v>
@@ -417,7 +1057,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="2">
-        <v>45086.42258519676</v>
+        <v>45086.4225851968</v>
       </c>
       <c r="C3">
         <v>5.569307</v>
@@ -428,7 +1068,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="2">
-        <v>45086.49481690972</v>
+        <v>45086.4948169097</v>
       </c>
       <c r="C4">
         <v>29.999294</v>
@@ -439,7 +1079,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <v>45086.51200627315</v>
+        <v>45086.5120062732</v>
       </c>
       <c r="C5">
         <v>48.30204</v>
@@ -450,7 +1090,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="2">
-        <v>45086.53329678241</v>
+        <v>45086.5332967824</v>
       </c>
       <c r="C6">
         <v>68.131219</v>
@@ -461,7 +1101,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>45086.53949763889</v>
+        <v>45086.5394976389</v>
       </c>
       <c r="C7">
         <v>100.012338</v>
@@ -472,7 +1112,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>45086.54798997685</v>
+        <v>45086.5479899768</v>
       </c>
       <c r="C8">
         <v>148.58723</v>
@@ -494,7 +1134,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>45086.59761453704</v>
+        <v>45086.597614537</v>
       </c>
       <c r="C10">
         <v>39.660534</v>
@@ -505,7 +1145,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>45086.60200628472</v>
+        <v>45086.6020062847</v>
       </c>
       <c r="C11">
         <v>165.209363</v>
@@ -516,7 +1156,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="2">
-        <v>45086.60572630787</v>
+        <v>45086.6057263079</v>
       </c>
       <c r="C12">
         <v>62.000169</v>
@@ -527,7 +1167,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>45086.61118840278</v>
+        <v>45086.6111884028</v>
       </c>
       <c r="C13">
         <v>157.167418</v>
@@ -538,7 +1178,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>45086.61712078704</v>
+        <v>45086.617120787</v>
       </c>
       <c r="C14">
         <v>154.603938</v>
@@ -549,7 +1189,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="2">
-        <v>45086.62386180556</v>
+        <v>45086.6238618056</v>
       </c>
       <c r="C15">
         <v>32.25808</v>
@@ -560,7 +1200,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>45086.62720482639</v>
+        <v>45086.6272048264</v>
       </c>
       <c r="C16">
         <v>119.999969</v>
@@ -571,7 +1211,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="2">
-        <v>45086.63017915509</v>
+        <v>45086.6301791551</v>
       </c>
       <c r="C17">
         <v>59.999725</v>
@@ -582,7 +1222,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>45086.63107208334</v>
+        <v>45086.6310720833</v>
       </c>
       <c r="C18">
         <v>2.000128</v>
@@ -593,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="2">
-        <v>45086.63178476852</v>
+        <v>45086.6317847685</v>
       </c>
       <c r="C19">
         <v>5.62783</v>
@@ -604,7 +1244,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>45086.63696038195</v>
+        <v>45086.6369603819</v>
       </c>
       <c r="C20">
         <v>156.521972</v>
@@ -615,7 +1255,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>45086.64422440972</v>
+        <v>45086.6442244097</v>
       </c>
       <c r="C21">
         <v>118.089555</v>
@@ -626,7 +1266,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2">
-        <v>45086.64866385417</v>
+        <v>45086.6486638542</v>
       </c>
       <c r="C22">
         <v>2.000041</v>
@@ -637,7 +1277,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>45086.65275203704</v>
+        <v>45086.652752037</v>
       </c>
       <c r="C23">
         <v>153.267964</v>
@@ -648,7 +1288,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="2">
-        <v>45086.65939734954</v>
+        <v>45086.6593973495</v>
       </c>
       <c r="C24">
         <v>62.0001</v>
@@ -659,7 +1299,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="2">
-        <v>45086.67071888889</v>
+        <v>45086.6707188889</v>
       </c>
       <c r="C25">
         <v>157.001298</v>
@@ -670,7 +1310,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="2">
-        <v>45086.67577188658</v>
+        <v>45086.6757718866</v>
       </c>
       <c r="C26">
         <v>28.754664</v>
@@ -692,7 +1332,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="2">
-        <v>45086.68495996528</v>
+        <v>45086.6849599653</v>
       </c>
       <c r="C28">
         <v>89.332314</v>
@@ -703,7 +1343,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="2">
-        <v>45086.68985649305</v>
+        <v>45086.6898564931</v>
       </c>
       <c r="C29">
         <v>156.831028</v>
@@ -714,7 +1354,7 @@
         <v>20</v>
       </c>
       <c r="B30" s="2">
-        <v>45086.69142349537</v>
+        <v>45086.6914234954</v>
       </c>
       <c r="C30">
         <v>5.779356</v>
@@ -736,7 +1376,7 @@
         <v>20</v>
       </c>
       <c r="B32" s="2">
-        <v>45086.70231017361</v>
+        <v>45086.7023101736</v>
       </c>
       <c r="C32">
         <v>64.783357</v>
@@ -747,13 +1387,64 @@
         <v>20</v>
       </c>
       <c r="B33" s="2">
-        <v>45086.70886261077</v>
+        <v>45086.7088626157</v>
       </c>
       <c r="C33">
         <v>15.779029</v>
       </c>
     </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45170.5367878472</v>
+      </c>
+      <c r="C34">
+        <v>8.180655</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>